--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W15_H100_B16.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W15_H100_B16.xlsx
@@ -502,22 +502,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5382165605095541</v>
+        <v>0.5443037974683544</v>
       </c>
       <c r="B2" t="n">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9184782608695652</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03333333333333333</v>
+        <v>0.04</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5209580838323353</v>
+        <v>0.5329341317365269</v>
       </c>
       <c r="F2" t="n">
-        <v>0.678714859437751</v>
+        <v>0.6880000000000001</v>
       </c>
       <c r="G2" t="n">
         <v>0.5</v>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.06706725560467172</v>
+        <v>0.06661681254703584</v>
       </c>
       <c r="J2" t="n">
-        <v>851.6078828956767</v>
+        <v>829.7543434663406</v>
       </c>
       <c r="K2" t="n">
-        <v>1065145.380043394</v>
+        <v>873904.6846203832</v>
       </c>
       <c r="L2" t="n">
-        <v>1032.058806485073</v>
+        <v>934.8286926599885</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8024824992427775</v>
+        <v>0.8379456246627904</v>
       </c>
     </row>
   </sheetData>
